--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="589">
   <si>
     <t>ID</t>
   </si>
@@ -1789,21 +1789,6 @@
   </si>
   <si>
     <t>Human Trafficking, Involuntary Servitude</t>
-  </si>
-  <si>
-    <t>Animal Cruelty</t>
-  </si>
-  <si>
-    <t>26F</t>
-  </si>
-  <si>
-    <t>Identity Theft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacking/Computer Invasion </t>
-  </si>
-  <si>
-    <t>26G</t>
   </si>
   <si>
     <t>UCROffenseCodeTypeID</t>
@@ -1900,15 +1885,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5427,10 +5409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5443,21 +5425,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -5466,12 +5448,12 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>25</v>
@@ -5480,12 +5462,12 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -5494,12 +5476,12 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
@@ -5508,12 +5490,12 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>88</v>
@@ -5522,12 +5504,12 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
@@ -5536,12 +5518,12 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
@@ -5550,12 +5532,12 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>94</v>
@@ -5564,12 +5546,12 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>120</v>
@@ -5578,12 +5560,12 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -5592,12 +5574,12 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
@@ -5606,12 +5588,12 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -5620,12 +5602,12 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="B14" s="2">
         <v>200</v>
@@ -5634,12 +5616,12 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2">
         <v>210</v>
@@ -5648,12 +5630,12 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="B16" s="2">
         <v>220</v>
@@ -5662,12 +5644,12 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>40</v>
@@ -5676,12 +5658,12 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -5690,12 +5672,12 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>44</v>
@@ -5704,12 +5686,12 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>46</v>
@@ -5718,12 +5700,12 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>48</v>
@@ -5732,12 +5714,12 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
@@ -5746,12 +5728,12 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>52</v>
@@ -5760,12 +5742,12 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>54</v>
@@ -5774,12 +5756,12 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2">
         <v>240</v>
@@ -5788,12 +5770,12 @@
         <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="B26" s="2">
         <v>250</v>
@@ -5802,12 +5784,12 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>58</v>
@@ -5816,12 +5798,12 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>60</v>
@@ -5830,12 +5812,12 @@
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
@@ -5844,12 +5826,12 @@
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>64</v>
@@ -5858,12 +5840,12 @@
         <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -5872,468 +5854,426 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>59</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>582</v>
+        <v>270</v>
+      </c>
+      <c r="B32" s="2">
+        <v>270</v>
       </c>
       <c r="C32" t="s">
-        <v>583</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>63</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>584</v>
+        <v>280</v>
+      </c>
+      <c r="B33" s="2">
+        <v>280</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2">
-        <v>280</v>
+        <v>351</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2">
-        <v>290</v>
+        <v>352</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>593</v>
+        <v>98</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>30</v>
+      <c r="A38" s="1">
+        <v>362</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>44</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>370</v>
+      </c>
+      <c r="B39" s="2">
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>590</v>
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>45</v>
+      <c r="A40">
+        <v>391</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2">
-        <v>370</v>
+        <v>392</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>32</v>
+        <v>393</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>402</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>36</v>
+        <v>403</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>575</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>576</v>
       </c>
       <c r="D46" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>37</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>510</v>
+      </c>
+      <c r="B47" s="2">
+        <v>510</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>60</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>575</v>
+        <v>520</v>
+      </c>
+      <c r="B48" s="2">
+        <v>520</v>
       </c>
       <c r="C48" t="s">
-        <v>576</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>38</v>
-      </c>
-      <c r="B49" s="2">
-        <v>510</v>
+        <v>641</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>578</v>
       </c>
       <c r="D49" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2">
-        <v>520</v>
+        <v>642</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>580</v>
       </c>
       <c r="D50" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>61</v>
+        <v>901</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>577</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>578</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>62</v>
+        <v>902</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>579</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>580</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
-      </c>
-      <c r="B53" s="5">
-        <v>720</v>
+        <v>903</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>47</v>
+        <v>904</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>48</v>
+        <v>905</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>49</v>
+        <v>906</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>50</v>
+        <v>907</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>51</v>
+        <v>908</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>52</v>
+        <v>909</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>53</v>
+        <v>910</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>54</v>
+        <v>990</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>55</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>56</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>57</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" t="s">
         <v>252</v>
       </c>
     </row>

--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="25" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="MultipleArresteeSegmentsIndicat" sheetId="27" r:id="rId27"/>
     <sheet name="ArresteeWasArmedWithType" sheetId="28" r:id="rId28"/>
     <sheet name="DispositionOfArresteeUnder18Typ" sheetId="29" r:id="rId29"/>
+    <sheet name="AgencyType" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="654">
   <si>
     <t>Table</t>
   </si>
@@ -1955,6 +1956,60 @@
   </si>
   <si>
     <t>98</t>
+  </si>
+  <si>
+    <t>Covered by another agency</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>University or college</t>
+  </si>
+  <si>
+    <t>State Police</t>
+  </si>
+  <si>
+    <t>Special Agency</t>
+  </si>
+  <si>
+    <t>Other state agencies</t>
+  </si>
+  <si>
+    <t>Tribal agencies</t>
+  </si>
+  <si>
+    <t>Federal agencies</t>
+  </si>
+  <si>
+    <t>AgencyType</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -2354,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2596,6 +2651,14 @@
       </c>
       <c r="B29" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>645</v>
+      </c>
+      <c r="B30" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6377,6 +6440,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>

--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="25" activeTab="29"/>
+    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1496,9 +1496,6 @@
     <t>Firearm (type not stated)</t>
   </si>
   <si>
-    <t>Lethal Cutting Instrument (e.g., switchblade knife or martial arts stars)</t>
-  </si>
-  <si>
     <t>Club/Blackjack/Brass Knuckles</t>
   </si>
   <si>
@@ -2010,6 +2007,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>Lethal Cutting Instrument</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -2655,10 +2655,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2695,7 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>280</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>281</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>284</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>286</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>290</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>293</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>295</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>296</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>297</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>298</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>300</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>301</v>
       </c>
       <c r="D24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>302</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>303</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,7 +3059,7 @@
         <v>304</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
         <v>277</v>
@@ -3293,7 +3293,7 @@
         <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
         <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
         <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3403,7 +3403,7 @@
         <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3447,7 +3447,7 @@
         <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3524,7 +3524,7 @@
         <v>312</v>
       </c>
       <c r="C27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>314</v>
       </c>
       <c r="C29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>315</v>
       </c>
       <c r="C30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,7 +3568,7 @@
         <v>316</v>
       </c>
       <c r="C31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>317</v>
       </c>
       <c r="C32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
         <v>318</v>
       </c>
       <c r="C33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
         <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>320</v>
       </c>
       <c r="C35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3623,7 +3623,7 @@
         <v>321</v>
       </c>
       <c r="C36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>322</v>
       </c>
       <c r="C37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,7 +3645,7 @@
         <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
         <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,7 @@
         <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>323</v>
       </c>
       <c r="C43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,7 +3711,7 @@
         <v>218</v>
       </c>
       <c r="C44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3755,7 +3755,7 @@
         <v>226</v>
       </c>
       <c r="C48" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>326</v>
       </c>
       <c r="C50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
         <v>329</v>
       </c>
       <c r="C52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>330</v>
       </c>
       <c r="C53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,7 +3821,7 @@
         <v>331</v>
       </c>
       <c r="C54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>332</v>
       </c>
       <c r="C55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
         <v>333</v>
       </c>
       <c r="C56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
         <v>334</v>
       </c>
       <c r="C57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>335</v>
       </c>
       <c r="C58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>336</v>
       </c>
       <c r="C59" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>339</v>
       </c>
       <c r="C61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,7 +3909,7 @@
         <v>340</v>
       </c>
       <c r="C62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>341</v>
       </c>
       <c r="C63" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3953,7 +3953,7 @@
         <v>345</v>
       </c>
       <c r="C66" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>346</v>
       </c>
       <c r="C67" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>347</v>
       </c>
       <c r="C68" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>98</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C70" t="s">
         <v>278</v>
@@ -4039,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4094,7 +4094,7 @@
         <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>352</v>
       </c>
       <c r="C12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,7 +4160,7 @@
         <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
         <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4204,7 +4204,7 @@
         <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>355</v>
       </c>
       <c r="C19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
         <v>98</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C20" t="s">
         <v>278</v>
@@ -4407,7 +4407,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C14" t="s">
         <v>278</v>
@@ -4492,7 +4492,7 @@
         <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4577,7 +4577,7 @@
         <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
         <v>277</v>
@@ -4851,7 +4851,7 @@
         <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,7 +4862,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4886,11 +4886,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -4911,7 +4914,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,7 +4925,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,7 +4936,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,7 +4958,7 @@
         <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5062,7 +5065,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" t="s">
         <v>277</v>
@@ -5114,7 +5117,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,7 +5295,7 @@
         <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5421,7 +5424,7 @@
         <v>98</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C20" t="s">
         <v>278</v>
@@ -5539,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
         <v>277</v>
@@ -5583,7 +5586,7 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5594,7 +5597,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,7 +5608,7 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5619,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5638,7 +5641,7 @@
         <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,7 +5652,7 @@
         <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5660,7 +5663,7 @@
         <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C10" t="s">
         <v>277</v>
@@ -5745,7 +5748,7 @@
         <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,7 +5825,7 @@
         <v>471</v>
       </c>
       <c r="C12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,7 +5998,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C28" t="s">
         <v>278</v>
@@ -6042,7 +6045,7 @@
         <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,7 +6056,7 @@
         <v>383</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,7 +6067,7 @@
         <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6072,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
         <v>277</v>
@@ -6149,7 +6152,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6242,7 +6245,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6256,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,7 +6264,7 @@
         <v>999</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
         <v>277</v>
@@ -6305,7 +6308,7 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,7 +6319,7 @@
         <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6324,7 +6327,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C4" t="s">
         <v>277</v>
@@ -6376,7 +6379,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6387,7 +6390,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6398,7 +6401,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6409,7 +6412,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,7 +6431,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C8" t="s">
         <v>277</v>
@@ -6444,7 +6447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -6470,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6481,10 +6484,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6492,10 +6495,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6503,10 +6506,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6514,10 +6517,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6525,10 +6528,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6536,10 +6539,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6547,10 +6550,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6558,10 +6561,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,7 +6572,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C11" t="s">
         <v>277</v>
@@ -6609,16 +6612,16 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" t="s">
         <v>496</v>
       </c>
-      <c r="E1" t="s">
-        <v>497</v>
-      </c>
       <c r="F1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,16 +6635,16 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6655,16 +6658,16 @@
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E3" t="s">
         <v>276</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,16 +6681,16 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6701,7 +6704,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>276</v>
@@ -6710,7 +6713,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6724,16 +6727,16 @@
         <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6747,16 +6750,16 @@
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6770,16 +6773,16 @@
         <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,16 +6796,16 @@
         <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6816,16 +6819,16 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6839,7 +6842,7 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>276</v>
@@ -6848,7 +6851,7 @@
         <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6862,16 +6865,16 @@
         <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6885,16 +6888,16 @@
         <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6908,16 +6911,16 @@
         <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,16 +6934,16 @@
         <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,16 +6957,16 @@
         <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6977,16 +6980,16 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7000,16 +7003,16 @@
         <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7023,16 +7026,16 @@
         <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7046,16 +7049,16 @@
         <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7069,16 +7072,16 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7092,7 +7095,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>276</v>
@@ -7101,7 +7104,7 @@
         <v>86</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7115,16 +7118,16 @@
         <v>88</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7138,16 +7141,16 @@
         <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7161,16 +7164,16 @@
         <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7184,16 +7187,16 @@
         <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7207,16 +7210,16 @@
         <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7230,7 +7233,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>276</v>
@@ -7239,7 +7242,7 @@
         <v>97</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7253,7 +7256,7 @@
         <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>276</v>
@@ -7262,7 +7265,7 @@
         <v>98</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7276,16 +7279,16 @@
         <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7299,16 +7302,16 @@
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7322,7 +7325,7 @@
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>276</v>
@@ -7331,7 +7334,7 @@
         <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7345,16 +7348,16 @@
         <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7368,16 +7371,16 @@
         <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7391,16 +7394,16 @@
         <v>109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7414,16 +7417,16 @@
         <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7437,16 +7440,16 @@
         <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7460,16 +7463,16 @@
         <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7483,7 +7486,7 @@
         <v>116</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>276</v>
@@ -7492,7 +7495,7 @@
         <v>116</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7506,16 +7509,16 @@
         <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7529,16 +7532,16 @@
         <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7552,16 +7555,16 @@
         <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7575,16 +7578,16 @@
         <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7598,7 +7601,7 @@
         <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>276</v>
@@ -7607,7 +7610,7 @@
         <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7621,16 +7624,16 @@
         <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7644,16 +7647,16 @@
         <v>129</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7667,7 +7670,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>276</v>
@@ -7676,7 +7679,7 @@
         <v>130</v>
       </c>
       <c r="G47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7690,16 +7693,16 @@
         <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7713,16 +7716,16 @@
         <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7736,16 +7739,16 @@
         <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,16 +7762,16 @@
         <v>138</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7782,16 +7785,16 @@
         <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7805,16 +7808,16 @@
         <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7828,16 +7831,16 @@
         <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7851,16 +7854,16 @@
         <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7874,16 +7877,16 @@
         <v>148</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7897,16 +7900,16 @@
         <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,13 +7923,13 @@
         <v>152</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G58" t="s">
         <v>152</v>
@@ -7940,19 +7943,19 @@
         <v>720</v>
       </c>
       <c r="C59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7960,22 +7963,22 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C60" t="s">
         <v>493</v>
       </c>
-      <c r="C60" t="s">
-        <v>494</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7983,22 +7986,22 @@
         <v>403</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" t="s">
         <v>486</v>
       </c>
-      <c r="C61" t="s">
-        <v>487</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8006,22 +8009,22 @@
         <v>641</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" t="s">
         <v>488</v>
       </c>
-      <c r="C62" t="s">
-        <v>489</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F62" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -8029,22 +8032,22 @@
         <v>642</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C63" t="s">
         <v>490</v>
       </c>
-      <c r="C63" t="s">
-        <v>491</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -8052,7 +8055,7 @@
         <v>999</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C64" t="s">
         <v>277</v>
@@ -8149,7 +8152,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
         <v>278</v>
@@ -8381,7 +8384,7 @@
         <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8749,7 +8752,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C4" t="s">
         <v>277</v>
@@ -8804,7 +8807,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8892,7 +8895,7 @@
         <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8903,7 +8906,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8911,7 +8914,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C13" t="s">
         <v>277</v>

--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="653">
   <si>
     <t>Table</t>
   </si>
@@ -209,21 +209,12 @@
     <t>09A</t>
   </si>
   <si>
-    <t>Homicide Offenses-Murder and Nonnegligent Manslaughter</t>
-  </si>
-  <si>
     <t>09B</t>
   </si>
   <si>
-    <t>Homicide Offenses-Negligent Manslaughter</t>
-  </si>
-  <si>
     <t>09C</t>
   </si>
   <si>
-    <t>Homicide Offenses-Justifiable Homicide</t>
-  </si>
-  <si>
     <t>Kidnapping/Abduction</t>
   </si>
   <si>
@@ -1586,9 +1577,6 @@
     <t>OffenseCategory3</t>
   </si>
   <si>
-    <t>Homicide Offenses</t>
-  </si>
-  <si>
     <t>Assault Offenses</t>
   </si>
   <si>
@@ -2010,6 +1998,15 @@
   </si>
   <si>
     <t>Lethal Cutting Instrument</t>
+  </si>
+  <si>
+    <t>Murder and Nonnegligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Justifiable Homicide</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -2655,10 +2652,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +2692,7 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,10 +2717,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2734,10 +2731,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2748,10 +2745,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2762,10 +2759,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,10 +2773,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,10 +2787,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,10 +2801,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2818,10 +2815,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,10 +2829,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,10 +2843,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,10 +2857,10 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,10 +2871,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2888,10 +2885,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,10 +2899,10 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,10 +2913,10 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,10 +2927,10 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2944,10 +2941,10 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2958,10 +2955,10 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2972,10 +2969,10 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2986,10 +2983,10 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,10 +2997,10 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,10 +3011,10 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D24" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,10 +3025,10 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3042,10 +3039,10 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,10 +3053,10 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3070,10 +3067,10 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,10 +3081,10 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3162,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3173,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,7 +3192,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,10 +3200,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3246,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,10 +3254,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3290,10 +3287,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,10 +3298,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3312,10 +3309,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,10 +3320,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3334,10 +3331,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,10 +3342,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,10 +3353,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,10 +3364,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3378,10 +3375,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3389,10 +3386,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,10 +3397,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,10 +3408,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,10 +3419,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,10 +3430,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3444,10 +3441,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3455,10 +3452,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3466,10 +3463,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3477,10 +3474,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,10 +3485,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3499,10 +3496,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,10 +3507,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3521,10 +3518,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,10 +3529,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C28" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,10 +3540,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3554,10 +3551,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3576,10 +3573,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,10 +3584,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3598,10 +3595,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,10 +3606,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,10 +3617,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3631,10 +3628,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,10 +3639,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,10 +3650,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,10 +3661,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3675,10 +3672,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,10 +3683,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,10 +3694,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,10 +3705,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3719,10 +3716,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,10 +3727,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,10 +3738,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,10 +3749,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,10 +3760,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3774,10 +3771,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C50" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,10 +3782,10 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C51" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3796,10 +3793,10 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3807,10 +3804,10 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C53" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,10 +3815,10 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C54" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,10 +3826,10 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3840,10 +3837,10 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,10 +3848,10 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C57" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3862,10 +3859,10 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,10 +3870,10 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,10 +3881,10 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,10 +3892,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,10 +3903,10 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C62" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,10 +3914,10 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3928,10 +3925,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,10 +3936,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C65" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,10 +3947,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,10 +3958,10 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C67" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3972,10 +3969,10 @@
         <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,10 +3980,10 @@
         <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,10 +3991,10 @@
         <v>98</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4036,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,7 +4047,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,7 +4058,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4069,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,7 +4080,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,10 +4088,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4102,10 +4099,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,10 +4110,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,7 +4124,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4135,10 +4132,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4146,10 +4143,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,10 +4154,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,7 +4168,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4182,7 +4179,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,10 +4187,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,10 +4198,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,10 +4209,10 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4223,10 +4220,10 @@
         <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,10 +4231,10 @@
         <v>98</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4275,10 +4272,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,10 +4283,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,10 +4294,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4319,10 +4316,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,10 +4327,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4341,10 +4338,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4352,10 +4349,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4363,10 +4360,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,10 +4371,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4385,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,10 +4393,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4407,10 +4404,10 @@
         <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4448,7 +4445,7 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4456,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,10 +4464,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4481,7 +4478,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4489,10 +4486,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4500,10 +4497,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4511,10 +4508,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4522,10 +4519,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4533,10 +4530,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4574,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,10 +4582,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,10 +4593,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,10 +4604,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4618,10 +4615,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,10 +4626,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,10 +4637,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,10 +4648,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4662,10 +4659,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,7 +4673,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4687,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,10 +4692,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4733,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4744,10 +4741,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4755,10 +4752,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,7 +4766,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4777,10 +4774,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4788,10 +4785,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,10 +4796,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4810,10 +4807,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4848,10 +4845,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,7 +4859,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,10 +4867,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -4914,7 +4911,7 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4925,7 +4922,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4936,7 +4933,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4947,7 +4944,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,10 +4952,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,10 +4963,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5065,10 +5062,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5103,10 +5100,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,7 +5114,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5125,10 +5122,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5166,7 +5163,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5174,10 +5171,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5185,10 +5182,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5226,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5237,10 +5234,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,10 +5256,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,10 +5267,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,10 +5278,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,10 +5289,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5303,10 +5300,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5314,10 +5311,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,7 +5325,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5339,7 +5336,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,7 +5347,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5361,7 +5358,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5369,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5380,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5394,7 +5391,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,7 +5402,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5413,10 +5410,10 @@
         <v>99</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5424,10 +5421,10 @@
         <v>98</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5465,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5476,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5490,7 +5487,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5501,7 +5498,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5512,7 +5509,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,10 +5517,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,10 +5528,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,10 +5539,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5586,7 +5583,7 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5597,7 +5594,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,10 +5602,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5619,7 +5616,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5630,7 +5627,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5638,10 +5635,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,10 +5646,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5660,10 +5657,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5671,10 +5668,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5712,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5723,10 +5720,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5734,10 +5731,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,10 +5742,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5756,10 +5753,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5767,10 +5764,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5778,10 +5775,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5789,10 +5786,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,10 +5797,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5811,10 +5808,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,10 +5819,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5833,10 +5830,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5844,10 +5841,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5855,10 +5852,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5866,10 +5863,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,10 +5874,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C17" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,10 +5885,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5899,10 +5896,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,10 +5907,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,10 +5918,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5932,10 +5929,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5943,10 +5940,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5954,10 +5951,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5965,10 +5962,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,10 +5973,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,10 +5984,10 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,10 +5995,10 @@
         <v>98</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6042,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,10 +6050,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,10 +6061,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6075,10 +6072,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6116,7 +6113,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6127,7 +6124,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6138,7 +6135,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6176,10 +6173,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,7 +6187,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6201,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6212,7 +6209,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6223,7 +6220,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6234,7 +6231,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,7 +6242,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,7 +6253,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6264,10 +6261,10 @@
         <v>999</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6305,10 +6302,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,10 +6313,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6327,10 +6324,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6379,7 +6376,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6390,7 +6387,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,7 +6398,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,7 +6409,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6423,7 +6420,7 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6431,10 +6428,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6473,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6484,10 +6481,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6495,10 +6492,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6506,10 +6503,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6517,10 +6514,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6528,10 +6525,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6539,10 +6536,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6550,10 +6547,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6561,10 +6558,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C10" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6572,10 +6569,10 @@
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6587,8 +6584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6612,16 +6609,16 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,19 +6629,19 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>650</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" t="s">
-        <v>512</v>
+        <v>496</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="G2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6652,22 +6649,22 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>651</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>512</v>
+        <v>651</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6675,22 +6672,22 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>652</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>512</v>
+        <v>652</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6701,19 +6698,19 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6724,19 +6721,19 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6744,22 +6741,22 @@
         <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6767,22 +6764,22 @@
         <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6790,22 +6787,22 @@
         <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6816,19 +6813,19 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6839,19 +6836,19 @@
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6862,19 +6859,19 @@
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6882,22 +6879,22 @@
         <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6905,22 +6902,22 @@
         <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6928,22 +6925,22 @@
         <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6951,22 +6948,22 @@
         <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6974,22 +6971,22 @@
         <v>235</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6997,22 +6994,22 @@
         <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7020,22 +7017,22 @@
         <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7043,22 +7040,22 @@
         <v>238</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7069,19 +7066,19 @@
         <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7092,19 +7089,19 @@
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,22 +7109,22 @@
         <v>261</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F23" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7135,22 +7132,22 @@
         <v>262</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7158,22 +7155,22 @@
         <v>263</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7181,22 +7178,22 @@
         <v>264</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7204,22 +7201,22 @@
         <v>265</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7230,19 +7227,19 @@
         <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7253,19 +7250,19 @@
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7273,22 +7270,22 @@
         <v>351</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F30" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G30" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7296,22 +7293,22 @@
         <v>352</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7322,19 +7319,19 @@
         <v>370</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7342,22 +7339,22 @@
         <v>391</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7365,22 +7362,22 @@
         <v>392</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7388,22 +7385,22 @@
         <v>393</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7411,22 +7408,22 @@
         <v>394</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7434,22 +7431,22 @@
         <v>401</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7457,22 +7454,22 @@
         <v>402</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7483,19 +7480,19 @@
         <v>510</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7503,22 +7500,22 @@
         <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G40" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7526,22 +7523,22 @@
         <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7549,22 +7546,22 @@
         <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,22 +7569,22 @@
         <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7598,19 +7595,19 @@
         <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7618,22 +7615,22 @@
         <v>361</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G45" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7641,22 +7638,22 @@
         <v>362</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G46" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7667,19 +7664,19 @@
         <v>520</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7687,22 +7684,22 @@
         <v>901</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F48" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G48" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7710,22 +7707,22 @@
         <v>902</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G49" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7733,22 +7730,22 @@
         <v>903</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7756,22 +7753,22 @@
         <v>904</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7779,22 +7776,22 @@
         <v>905</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7802,22 +7799,22 @@
         <v>906</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7825,22 +7822,22 @@
         <v>907</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,22 +7845,22 @@
         <v>908</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7871,22 +7868,22 @@
         <v>909</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G56" t="s">
         <v>522</v>
-      </c>
-      <c r="G56" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7894,22 +7891,22 @@
         <v>910</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G57" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7917,22 +7914,22 @@
         <v>990</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7943,19 +7940,19 @@
         <v>720</v>
       </c>
       <c r="C59" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G59" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7963,22 +7960,22 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C60" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G60" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7986,22 +7983,22 @@
         <v>403</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C61" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G61" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8009,22 +8006,22 @@
         <v>641</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F62" t="s">
+        <v>517</v>
+      </c>
+      <c r="G62" t="s">
         <v>521</v>
-      </c>
-      <c r="G62" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -8032,22 +8029,22 @@
         <v>642</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C63" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G63" t="s">
         <v>521</v>
-      </c>
-      <c r="G63" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -8055,22 +8052,22 @@
         <v>999</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +8108,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8122,7 +8119,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,7 +8130,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8141,7 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8152,10 +8149,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -8194,10 +8191,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8205,10 +8202,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8216,10 +8213,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8227,10 +8224,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8238,10 +8235,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8249,10 +8246,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8260,10 +8257,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8271,10 +8268,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8282,10 +8279,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8293,10 +8290,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8304,10 +8301,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8315,10 +8312,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,10 +8323,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,10 +8334,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8348,10 +8345,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8359,10 +8356,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8370,10 +8367,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8381,10 +8378,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8392,10 +8389,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8403,10 +8400,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8414,10 +8411,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8425,10 +8422,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8436,10 +8433,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8447,10 +8444,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8458,10 +8455,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8469,10 +8466,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8480,10 +8477,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8491,10 +8488,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8502,10 +8499,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8513,10 +8510,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8524,10 +8521,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8535,10 +8532,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8546,10 +8543,10 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8557,10 +8554,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8568,10 +8565,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8579,10 +8576,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8590,10 +8587,10 @@
         <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8601,10 +8598,10 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8612,10 +8609,10 @@
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8623,10 +8620,10 @@
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8634,10 +8631,10 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8645,10 +8642,10 @@
         <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,10 +8653,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8667,10 +8664,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8678,10 +8675,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,10 +8686,10 @@
         <v>99</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8730,10 +8727,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8744,7 +8741,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8752,10 +8749,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8796,7 +8793,7 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8807,7 +8804,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8818,7 +8815,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8829,7 +8826,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8837,10 +8834,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8848,10 +8845,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8859,10 +8856,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8870,10 +8867,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,10 +8878,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8892,10 +8889,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8906,7 +8903,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8914,10 +8911,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8958,7 +8955,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8969,7 +8966,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8980,7 +8977,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8991,7 +8988,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9002,7 +8999,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9013,7 +9010,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9021,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9035,7 +9032,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9046,7 +9043,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9057,7 +9054,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9068,7 +9065,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9079,7 +9076,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,7 +9087,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9101,7 +9098,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,7 +9109,7 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9123,7 +9120,7 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9134,7 +9131,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="465" windowWidth="24720" windowHeight="14355" tabRatio="705" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="22100" yWindow="1380" windowWidth="20480" windowHeight="12400" tabRatio="705" firstSheet="27" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="655">
   <si>
     <t>Table</t>
   </si>
@@ -2007,6 +2007,12 @@
   </si>
   <si>
     <t>Justifiable Homicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Blank</t>
   </si>
 </sst>
 </file>
@@ -2412,13 +2418,13 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>491</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>640</v>
       </c>
@@ -2664,24 +2670,29 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2695,7 +2706,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -2709,7 +2720,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -2723,7 +2734,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -2779,7 +2790,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -2793,7 +2804,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -2807,7 +2818,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -2821,7 +2832,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -2835,7 +2846,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -2849,7 +2860,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="1">
         <v>26</v>
       </c>
@@ -2863,7 +2874,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>27</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -2891,7 +2902,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="1">
         <v>33</v>
       </c>
@@ -2905,7 +2916,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>41</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="1">
         <v>42</v>
       </c>
@@ -2933,7 +2944,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1">
         <v>44</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="1">
         <v>51</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1">
         <v>52</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="1">
         <v>61</v>
       </c>
@@ -3017,7 +3028,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -3031,7 +3042,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="1">
         <v>71</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="1">
         <v>72</v>
       </c>
@@ -3059,7 +3070,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="1">
         <v>88</v>
       </c>
@@ -3073,7 +3084,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="1">
         <v>99</v>
       </c>
@@ -3085,29 +3096,48 @@
       </c>
       <c r="D29" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>99999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>653</v>
+      </c>
+      <c r="C30" t="s">
+        <v>654</v>
+      </c>
+      <c r="D30" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -3118,7 +3148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3129,7 +3159,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3140,7 +3170,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3151,7 +3181,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3162,7 +3192,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3173,7 +3203,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3184,7 +3214,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3195,7 +3225,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3204,11 +3234,27 @@
       </c>
       <c r="C9" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>99999</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3220,14 +3266,14 @@
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="58.1640625" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -3238,7 +3284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3249,7 +3295,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3260,7 +3306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3271,7 +3317,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3282,7 +3328,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3293,7 +3339,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3304,7 +3350,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3315,7 +3361,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3326,7 +3372,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3337,7 +3383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3348,7 +3394,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3359,7 +3405,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3370,7 +3416,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3381,7 +3427,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3392,7 +3438,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3403,7 +3449,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3425,7 +3471,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3436,7 +3482,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3447,7 +3493,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3458,7 +3504,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3469,7 +3515,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3480,7 +3526,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3491,7 +3537,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3502,7 +3548,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3513,7 +3559,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3524,7 +3570,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3535,7 +3581,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3546,7 +3592,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3557,7 +3603,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3568,7 +3614,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3579,7 +3625,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3590,7 +3636,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3601,7 +3647,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3612,7 +3658,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3623,7 +3669,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3634,7 +3680,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3645,7 +3691,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3656,7 +3702,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3667,7 +3713,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3678,7 +3724,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3689,7 +3735,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3700,7 +3746,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3711,7 +3757,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3722,7 +3768,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3733,7 +3779,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3744,7 +3790,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" customHeight="1">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3755,7 +3801,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15" customHeight="1">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3766,7 +3812,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15" customHeight="1">
       <c r="A50">
         <v>59</v>
       </c>
@@ -3777,7 +3823,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15" customHeight="1">
       <c r="A51">
         <v>64</v>
       </c>
@@ -3788,7 +3834,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15" customHeight="1">
       <c r="A52">
         <v>65</v>
       </c>
@@ -3799,7 +3845,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" customHeight="1">
       <c r="A53">
         <v>66</v>
       </c>
@@ -3810,7 +3856,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15" customHeight="1">
       <c r="A54">
         <v>67</v>
       </c>
@@ -3821,7 +3867,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15" customHeight="1">
       <c r="A55">
         <v>68</v>
       </c>
@@ -3832,7 +3878,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" customHeight="1">
       <c r="A56">
         <v>69</v>
       </c>
@@ -3843,7 +3889,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15" customHeight="1">
       <c r="A57">
         <v>70</v>
       </c>
@@ -3854,7 +3900,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15" customHeight="1">
       <c r="A58">
         <v>71</v>
       </c>
@@ -3865,7 +3911,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1">
       <c r="A59" s="1">
         <v>72</v>
       </c>
@@ -3876,7 +3922,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15" customHeight="1">
       <c r="A60" s="1">
         <v>73</v>
       </c>
@@ -3887,7 +3933,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15" customHeight="1">
       <c r="A61" s="1">
         <v>74</v>
       </c>
@@ -3898,7 +3944,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15" customHeight="1">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -3909,7 +3955,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15" customHeight="1">
       <c r="A63" s="1">
         <v>76</v>
       </c>
@@ -3920,7 +3966,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15" customHeight="1">
       <c r="A64" s="1">
         <v>77</v>
       </c>
@@ -3931,7 +3977,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15" customHeight="1">
       <c r="A65" s="1">
         <v>78</v>
       </c>
@@ -3942,7 +3988,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15" customHeight="1">
       <c r="A66" s="1">
         <v>79</v>
       </c>
@@ -3953,7 +3999,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15" customHeight="1">
       <c r="A67" s="1">
         <v>80</v>
       </c>
@@ -3964,7 +4010,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1">
       <c r="A68">
         <v>88</v>
       </c>
@@ -3975,7 +4021,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="A69">
         <v>99</v>
       </c>
@@ -3986,7 +4032,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>98</v>
       </c>
@@ -4000,6 +4046,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4011,13 +4062,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4028,7 +4079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4039,7 +4090,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4050,7 +4101,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4061,7 +4112,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4072,7 +4123,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4083,7 +4134,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4094,7 +4145,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4105,7 +4156,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4116,7 +4167,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4127,7 +4178,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4138,7 +4189,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4149,7 +4200,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4160,7 +4211,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4171,7 +4222,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4182,7 +4233,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4193,7 +4244,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4204,7 +4255,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>99</v>
       </c>
@@ -4215,7 +4266,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19">
         <v>93</v>
       </c>
@@ -4226,7 +4277,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>98</v>
       </c>
@@ -4240,23 +4291,28 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4267,7 +4323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4278,7 +4334,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>7</v>
       </c>
@@ -4289,7 +4345,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4300,7 +4356,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4311,7 +4367,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4322,7 +4378,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4333,7 +4389,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4344,7 +4400,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4355,7 +4411,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4366,7 +4422,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4377,7 +4433,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4388,7 +4444,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>99</v>
       </c>
@@ -4399,7 +4455,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>98</v>
       </c>
@@ -4408,25 +4464,44 @@
       </c>
       <c r="C14" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>99999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C15" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4437,7 +4512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4448,7 +4523,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4459,7 +4534,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4470,7 +4545,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4481,7 +4556,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4492,7 +4567,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4503,7 +4578,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4514,7 +4589,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4525,7 +4600,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4534,28 +4609,44 @@
       </c>
       <c r="C10" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>99999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4566,7 +4657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4577,7 +4668,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4588,7 +4679,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4599,7 +4690,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4610,7 +4701,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4621,7 +4712,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4632,7 +4723,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4643,7 +4734,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4654,7 +4745,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4665,7 +4756,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4676,7 +4767,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4687,7 +4778,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>99</v>
       </c>
@@ -4696,25 +4787,44 @@
       </c>
       <c r="C13" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>99999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C14" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4725,7 +4835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4736,7 +4846,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4747,7 +4857,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4758,7 +4868,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4769,7 +4879,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4780,7 +4890,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4791,7 +4901,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4802,7 +4912,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4811,25 +4921,41 @@
       </c>
       <c r="C9" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>99999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4840,7 +4966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4851,7 +4977,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4862,7 +4988,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4871,28 +4997,44 @@
       </c>
       <c r="C4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4903,7 +5045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4914,7 +5056,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4925,7 +5067,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4936,7 +5078,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4947,7 +5089,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4958,7 +5100,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4967,6 +5109,17 @@
       </c>
       <c r="C7" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>99999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4975,23 +5128,28 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5002,7 +5160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5013,7 +5171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5024,7 +5182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5035,7 +5193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5046,7 +5204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5057,7 +5215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -5066,25 +5224,41 @@
       </c>
       <c r="C7" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>99999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5095,7 +5269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5106,7 +5280,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5117,7 +5291,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>9</v>
       </c>
@@ -5126,25 +5300,41 @@
       </c>
       <c r="C4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5155,7 +5345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5166,7 +5356,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5177,7 +5367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>9</v>
       </c>
@@ -5186,28 +5376,44 @@
       </c>
       <c r="C4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5218,7 +5424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5229,7 +5435,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5240,7 +5446,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5251,7 +5457,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5262,7 +5468,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5273,7 +5479,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5284,7 +5490,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5295,7 +5501,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5306,7 +5512,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5317,7 +5523,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5328,7 +5534,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>30</v>
       </c>
@@ -5339,7 +5545,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13">
         <v>31</v>
       </c>
@@ -5350,7 +5556,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14">
         <v>32</v>
       </c>
@@ -5361,7 +5567,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15">
         <v>33</v>
       </c>
@@ -5372,7 +5578,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16">
         <v>34</v>
       </c>
@@ -5383,7 +5589,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
         <v>20</v>
       </c>
@@ -5394,7 +5600,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>21</v>
       </c>
@@ -5405,7 +5611,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>99</v>
       </c>
@@ -5416,7 +5622,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>98</v>
       </c>
@@ -5425,28 +5631,44 @@
       </c>
       <c r="C20" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>99999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>653</v>
+      </c>
+      <c r="C21" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5457,7 +5679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5468,7 +5690,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5479,7 +5701,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5490,7 +5712,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5501,7 +5723,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5512,7 +5734,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5523,7 +5745,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5534,7 +5756,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5543,28 +5765,44 @@
       </c>
       <c r="C9" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>99999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C10" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5575,7 +5813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5586,7 +5824,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5597,7 +5835,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5608,7 +5846,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5619,7 +5857,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5630,7 +5868,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5641,7 +5879,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5652,7 +5890,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5663,7 +5901,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5672,28 +5910,44 @@
       </c>
       <c r="C10" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>99999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5704,7 +5958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5715,7 +5969,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5726,7 +5980,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5737,7 +5991,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5748,7 +6002,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5759,7 +6013,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5770,7 +6024,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5781,7 +6035,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5792,7 +6046,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5803,7 +6057,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5814,7 +6068,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5825,7 +6079,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5836,7 +6090,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5847,7 +6101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5858,7 +6112,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5869,7 +6123,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5880,7 +6134,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5891,7 +6145,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5902,7 +6156,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5913,7 +6167,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5924,7 +6178,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5935,7 +6189,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5946,7 +6200,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5957,7 +6211,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5968,7 +6222,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5979,7 +6233,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27">
         <v>99</v>
       </c>
@@ -5990,7 +6244,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>98</v>
       </c>
@@ -5999,6 +6253,17 @@
       </c>
       <c r="C28" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>99999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>653</v>
+      </c>
+      <c r="C29" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6007,23 +6272,28 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6034,7 +6304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6045,7 +6315,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6056,7 +6326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6067,7 +6337,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -6076,25 +6346,44 @@
       </c>
       <c r="C5" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>99999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C6" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6105,7 +6394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6116,7 +6405,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6127,7 +6416,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6136,28 +6425,44 @@
       </c>
       <c r="C4" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6168,7 +6473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6179,7 +6484,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>110</v>
       </c>
@@ -6190,7 +6495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>120</v>
       </c>
@@ -6201,7 +6506,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>130</v>
       </c>
@@ -6212,7 +6517,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>140</v>
       </c>
@@ -6223,7 +6528,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>150</v>
       </c>
@@ -6234,7 +6539,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>200</v>
       </c>
@@ -6245,7 +6550,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>300</v>
       </c>
@@ -6256,7 +6561,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>999</v>
       </c>
@@ -6265,28 +6570,44 @@
       </c>
       <c r="C10" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>99999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6297,7 +6618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6308,7 +6629,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6319,7 +6640,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6328,25 +6649,44 @@
       </c>
       <c r="C4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6357,7 +6697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6368,7 +6708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6379,7 +6719,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6390,7 +6730,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6401,7 +6741,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6412,7 +6752,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6423,7 +6763,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -6432,11 +6772,27 @@
       </c>
       <c r="C8" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>99999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6444,17 +6800,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6465,7 +6821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6476,7 +6832,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6487,7 +6843,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6498,7 +6854,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6509,7 +6865,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6520,7 +6876,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6531,7 +6887,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6542,7 +6898,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6553,7 +6909,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6564,7 +6920,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>99</v>
       </c>
@@ -6577,28 +6933,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="59.125" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6621,7 +6982,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2">
         <v>91</v>
       </c>
@@ -6644,7 +7005,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3">
         <v>92</v>
       </c>
@@ -6667,7 +7028,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4">
         <v>93</v>
       </c>
@@ -6690,7 +7051,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5">
         <v>100</v>
       </c>
@@ -6713,7 +7074,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6">
         <v>120</v>
       </c>
@@ -6736,7 +7097,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7">
         <v>131</v>
       </c>
@@ -6759,7 +7120,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8">
         <v>132</v>
       </c>
@@ -6782,7 +7143,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9">
         <v>133</v>
       </c>
@@ -6805,7 +7166,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10">
         <v>200</v>
       </c>
@@ -6828,7 +7189,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11">
         <v>210</v>
       </c>
@@ -6851,7 +7212,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12">
         <v>220</v>
       </c>
@@ -6874,7 +7235,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13">
         <v>231</v>
       </c>
@@ -6897,7 +7258,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14">
         <v>232</v>
       </c>
@@ -6920,7 +7281,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15">
         <v>233</v>
       </c>
@@ -6943,7 +7304,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16">
         <v>234</v>
       </c>
@@ -6966,7 +7327,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17">
         <v>235</v>
       </c>
@@ -6989,7 +7350,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18">
         <v>236</v>
       </c>
@@ -7012,7 +7373,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19">
         <v>237</v>
       </c>
@@ -7035,7 +7396,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20">
         <v>238</v>
       </c>
@@ -7058,7 +7419,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21">
         <v>240</v>
       </c>
@@ -7081,7 +7442,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22">
         <v>250</v>
       </c>
@@ -7104,7 +7465,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23">
         <v>261</v>
       </c>
@@ -7127,7 +7488,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24">
         <v>262</v>
       </c>
@@ -7150,7 +7511,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25">
         <v>263</v>
       </c>
@@ -7173,7 +7534,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26">
         <v>264</v>
       </c>
@@ -7196,7 +7557,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27">
         <v>265</v>
       </c>
@@ -7219,7 +7580,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28">
         <v>270</v>
       </c>
@@ -7242,7 +7603,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29">
         <v>290</v>
       </c>
@@ -7265,7 +7626,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30">
         <v>351</v>
       </c>
@@ -7288,7 +7649,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31">
         <v>352</v>
       </c>
@@ -7311,7 +7672,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32">
         <v>370</v>
       </c>
@@ -7334,7 +7695,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33">
         <v>391</v>
       </c>
@@ -7357,7 +7718,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34">
         <v>392</v>
       </c>
@@ -7380,7 +7741,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35">
         <v>393</v>
       </c>
@@ -7403,7 +7764,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36">
         <v>394</v>
       </c>
@@ -7426,7 +7787,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37">
         <v>401</v>
       </c>
@@ -7449,7 +7810,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38">
         <v>402</v>
       </c>
@@ -7472,7 +7833,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="1">
         <v>510</v>
       </c>
@@ -7495,7 +7856,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40">
         <v>111</v>
       </c>
@@ -7518,7 +7879,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41">
         <v>112</v>
       </c>
@@ -7541,7 +7902,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42">
         <v>113</v>
       </c>
@@ -7564,7 +7925,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43">
         <v>114</v>
       </c>
@@ -7587,7 +7948,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44">
         <v>280</v>
       </c>
@@ -7610,7 +7971,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45">
         <v>361</v>
       </c>
@@ -7633,7 +7994,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="A46">
         <v>362</v>
       </c>
@@ -7656,7 +8017,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1">
       <c r="A47">
         <v>520</v>
       </c>
@@ -7679,7 +8040,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48">
         <v>901</v>
       </c>
@@ -7702,7 +8063,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49">
         <v>902</v>
       </c>
@@ -7725,7 +8086,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50">
         <v>903</v>
       </c>
@@ -7748,7 +8109,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51">
         <v>904</v>
       </c>
@@ -7771,7 +8132,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52">
         <v>905</v>
       </c>
@@ -7794,7 +8155,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53">
         <v>906</v>
       </c>
@@ -7817,7 +8178,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54">
         <v>907</v>
       </c>
@@ -7840,7 +8201,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1">
       <c r="A55">
         <v>908</v>
       </c>
@@ -7863,7 +8224,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1">
       <c r="A56">
         <v>909</v>
       </c>
@@ -7886,7 +8247,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="A57">
         <v>910</v>
       </c>
@@ -7909,7 +8270,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="A58">
         <v>990</v>
       </c>
@@ -7932,7 +8293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1">
       <c r="A59">
         <v>701</v>
       </c>
@@ -7955,7 +8316,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>702</v>
       </c>
@@ -7978,7 +8339,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>403</v>
       </c>
@@ -8001,7 +8362,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>641</v>
       </c>
@@ -8024,7 +8385,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>642</v>
       </c>
@@ -8047,7 +8408,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>999</v>
       </c>
@@ -8068,6 +8429,29 @@
       </c>
       <c r="G64" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>99999</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C65" t="s">
+        <v>654</v>
+      </c>
+      <c r="D65" t="s">
+        <v>654</v>
+      </c>
+      <c r="E65" t="s">
+        <v>654</v>
+      </c>
+      <c r="F65" t="s">
+        <v>654</v>
+      </c>
+      <c r="G65" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -8076,6 +8460,11 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8084,12 +8473,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8100,7 +8492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8111,7 +8503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8122,7 +8514,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8133,7 +8525,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8144,7 +8536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -8158,24 +8550,29 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8186,7 +8583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8197,7 +8594,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8208,7 +8605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8219,7 +8616,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8230,7 +8627,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8241,7 +8638,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8252,7 +8649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8263,7 +8660,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8274,7 +8671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8285,7 +8682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8296,7 +8693,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8307,7 +8704,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8318,7 +8715,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8329,7 +8726,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8340,7 +8737,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8351,7 +8748,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8362,7 +8759,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8373,7 +8770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8384,7 +8781,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8395,7 +8792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8406,7 +8803,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8417,7 +8814,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8428,7 +8825,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8439,7 +8836,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8450,7 +8847,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8461,7 +8858,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27">
         <v>37</v>
       </c>
@@ -8472,7 +8869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28">
         <v>38</v>
       </c>
@@ -8483,7 +8880,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29">
         <v>39</v>
       </c>
@@ -8494,7 +8891,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30">
         <v>40</v>
       </c>
@@ -8505,7 +8902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31">
         <v>41</v>
       </c>
@@ -8516,7 +8913,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32">
         <v>42</v>
       </c>
@@ -8527,7 +8924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1">
       <c r="A33">
         <v>44</v>
       </c>
@@ -8538,7 +8935,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="A34">
         <v>45</v>
       </c>
@@ -8549,7 +8946,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="A35">
         <v>46</v>
       </c>
@@ -8560,7 +8957,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="A36">
         <v>47</v>
       </c>
@@ -8571,7 +8968,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="A37">
         <v>48</v>
       </c>
@@ -8582,7 +8979,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38">
         <v>49</v>
       </c>
@@ -8593,7 +8990,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="A39">
         <v>50</v>
       </c>
@@ -8604,7 +9001,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40">
         <v>51</v>
       </c>
@@ -8615,7 +9012,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="A41">
         <v>52</v>
       </c>
@@ -8626,7 +9023,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42">
         <v>53</v>
       </c>
@@ -8637,7 +9034,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="A43">
         <v>54</v>
       </c>
@@ -8648,7 +9045,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="A44">
         <v>55</v>
       </c>
@@ -8659,7 +9056,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="A45">
         <v>56</v>
       </c>
@@ -8670,7 +9067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="A46">
         <v>57</v>
       </c>
@@ -8681,7 +9078,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>99</v>
       </c>
@@ -8690,28 +9087,44 @@
       </c>
       <c r="C47" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>99999</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8722,7 +9135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8733,7 +9146,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8744,7 +9157,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -8753,28 +9166,44 @@
       </c>
       <c r="C4" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -8785,7 +9214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8796,7 +9225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8807,7 +9236,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8818,7 +9247,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8829,7 +9258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>8</v>
       </c>
@@ -8840,7 +9269,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>9</v>
       </c>
@@ -8851,7 +9280,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>10</v>
       </c>
@@ -8862,7 +9291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>11</v>
       </c>
@@ -8873,7 +9302,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>6</v>
       </c>
@@ -8884,7 +9313,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>5</v>
       </c>
@@ -8895,7 +9324,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>7</v>
       </c>
@@ -8906,7 +9335,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>99</v>
       </c>
@@ -8915,11 +9344,27 @@
       </c>
       <c r="C13" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>99999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C14" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8931,12 +9376,12 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -8947,7 +9392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2">
         <v>110</v>
       </c>
@@ -8958,7 +9403,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3">
         <v>120</v>
       </c>
@@ -8969,7 +9414,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
         <v>130</v>
       </c>
@@ -8980,7 +9425,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5">
         <v>140</v>
       </c>
@@ -8991,7 +9436,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6">
         <v>150</v>
       </c>
@@ -9002,7 +9447,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
         <v>200</v>
       </c>
@@ -9013,7 +9458,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8">
         <v>300</v>
       </c>
@@ -9024,7 +9469,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
         <v>350</v>
       </c>
@@ -9035,7 +9480,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
         <v>400</v>
       </c>
@@ -9046,7 +9491,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11">
         <v>500</v>
       </c>
@@ -9057,7 +9502,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12">
         <v>600</v>
       </c>
@@ -9068,7 +9513,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13">
         <v>650</v>
       </c>
@@ -9079,7 +9524,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14">
         <v>700</v>
       </c>
@@ -9090,7 +9535,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15">
         <v>850</v>
       </c>
@@ -9101,7 +9546,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16">
         <v>900</v>
       </c>
@@ -9112,7 +9557,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
         <v>999</v>
       </c>
@@ -9123,7 +9568,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>990</v>
       </c>
@@ -9137,5 +9582,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22100" yWindow="1380" windowWidth="20480" windowHeight="12400" tabRatio="705" firstSheet="27" activeTab="29"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="705" firstSheet="25" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="655">
   <si>
     <t>Table</t>
   </si>
@@ -1940,9 +1940,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>Covered by another agency</t>
   </si>
   <si>
@@ -2013,6 +2010,9 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -2067,9 +2067,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2097,7 +2109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2105,6 +2117,12 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2112,6 +2130,12 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -2658,10 +2682,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2707,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3086,7 +3110,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="1">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B29">
         <v>99</v>
@@ -3100,16 +3124,16 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B30" t="s">
+        <v>652</v>
+      </c>
+      <c r="C30" t="s">
         <v>653</v>
       </c>
-      <c r="C30" t="s">
-        <v>654</v>
-      </c>
       <c r="D30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3152,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3227,10 +3251,10 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>525</v>
+        <v>629</v>
       </c>
       <c r="C9" t="s">
         <v>274</v>
@@ -3238,13 +3262,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" t="s">
         <v>653</v>
-      </c>
-      <c r="C10" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3287,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4023,7 +4047,7 @@
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
       <c r="A69">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>345</v>
@@ -4034,13 +4058,13 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4083,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4257,7 +4281,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B18" t="s">
         <v>255</v>
@@ -4279,13 +4303,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4301,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4446,7 +4470,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>345</v>
@@ -4457,24 +4481,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>98</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>630</v>
+        <v>99998</v>
+      </c>
+      <c r="B14" t="s">
+        <v>652</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>99999</v>
-      </c>
-      <c r="B15" t="s">
         <v>653</v>
-      </c>
-      <c r="C15" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4493,7 +4506,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4602,7 +4615,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B10" t="s">
         <v>255</v>
@@ -4613,13 +4626,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" t="s">
         <v>653</v>
-      </c>
-      <c r="C11" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4638,7 +4651,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4780,7 +4793,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>345</v>
@@ -4791,13 +4804,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" t="s">
         <v>653</v>
-      </c>
-      <c r="C14" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4829,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4914,7 +4927,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>525</v>
@@ -4925,13 +4938,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" t="s">
         <v>653</v>
-      </c>
-      <c r="C10" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4963,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4990,7 +5003,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5001,13 +5014,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5039,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5102,7 +5115,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B7" t="s">
         <v>255</v>
@@ -5113,13 +5126,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" t="s">
         <v>653</v>
-      </c>
-      <c r="C8" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5141,7 +5154,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5217,7 +5230,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>525</v>
@@ -5228,13 +5241,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" t="s">
         <v>653</v>
-      </c>
-      <c r="C8" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5253,7 +5266,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5293,7 +5306,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5304,13 +5317,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5329,7 +5342,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5369,7 +5382,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" t="s">
         <v>255</v>
@@ -5380,13 +5393,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5402,10 +5415,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5613,7 +5626,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>345</v>
@@ -5624,24 +5637,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>99999</v>
-      </c>
-      <c r="B21" t="s">
         <v>653</v>
-      </c>
-      <c r="C21" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5662,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5758,29 +5760,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>525</v>
+        <v>99998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>652</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>99999</v>
       </c>
-      <c r="B10" t="s">
-        <v>653</v>
+      <c r="B10" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5794,7 +5796,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5903,29 +5905,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>525</v>
+        <v>99998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>652</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>99999</v>
       </c>
-      <c r="B11" t="s">
-        <v>653</v>
+      <c r="B11" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C11" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5936,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6235,7 +6237,7 @@
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B27" t="s">
         <v>459</v>
@@ -6246,24 +6248,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>98</v>
+        <v>99998</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>99999</v>
-      </c>
-      <c r="B29" t="s">
         <v>653</v>
-      </c>
-      <c r="C29" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6284,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6337,31 +6328,31 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>525</v>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="1">
+        <v>99998</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>99999</v>
       </c>
-      <c r="B6" t="s">
-        <v>653</v>
+      <c r="B6" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6375,7 +6366,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6429,13 +6420,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6445,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6547,7 +6538,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
@@ -6563,29 +6554,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>999</v>
+        <v>99998</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>345</v>
+        <v>652</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>99999</v>
       </c>
-      <c r="B11" t="s">
-        <v>653</v>
+      <c r="B11" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6599,7 +6590,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6642,29 +6633,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>99998</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>525</v>
+        <v>652</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>99999</v>
       </c>
-      <c r="B5" t="s">
-        <v>653</v>
+      <c r="B5" s="3">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6678,7 +6669,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6765,7 +6756,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>525</v>
@@ -6776,13 +6767,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" t="s">
         <v>653</v>
-      </c>
-      <c r="C9" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6798,10 +6789,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6826,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6837,10 +6828,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6848,10 +6839,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6859,10 +6850,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6870,10 +6861,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6881,10 +6872,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6892,10 +6883,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6903,10 +6894,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6917,17 +6908,28 @@
         <v>629</v>
       </c>
       <c r="C10" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>99</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1">
+      <c r="A11" s="1">
+        <v>99998</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>99999</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6946,7 +6948,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6990,7 +6992,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D2" t="s">
         <v>494</v>
@@ -6999,7 +7001,7 @@
         <v>496</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G2" t="s">
         <v>521</v>
@@ -7013,7 +7015,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>494</v>
@@ -7022,7 +7024,7 @@
         <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>521</v>
@@ -7036,7 +7038,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>494</v>
@@ -7045,7 +7047,7 @@
         <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>522</v>
@@ -8410,7 +8412,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>999</v>
+        <v>99999</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>519</v>
@@ -8433,25 +8435,25 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C65" t="s">
         <v>653</v>
       </c>
-      <c r="C65" t="s">
-        <v>654</v>
-      </c>
       <c r="D65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8470,10 +8472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8538,13 +8540,24 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>99998</v>
+      </c>
+      <c r="B7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8562,8 +8575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9080,7 +9093,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>345</v>
@@ -9091,13 +9104,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C48" t="s">
         <v>653</v>
-      </c>
-      <c r="C48" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -9116,7 +9129,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9159,7 +9172,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9</v>
+        <v>99999</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>525</v>
@@ -9170,13 +9183,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -9195,7 +9208,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9337,7 +9350,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>99</v>
+        <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>525</v>
@@ -9348,13 +9361,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>99999</v>
+        <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" t="s">
         <v>653</v>
-      </c>
-      <c r="C14" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -9373,7 +9386,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9559,7 +9572,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17">
-        <v>999</v>
+        <v>99999</v>
       </c>
       <c r="B17" s="2">
         <v>95</v>
@@ -9570,13 +9583,13 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
-        <v>990</v>
-      </c>
-      <c r="B18" s="2">
-        <v>99</v>
+        <v>99998</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="705" firstSheet="25" activeTab="25"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="25440" windowHeight="15000" tabRatio="705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="ArresteeWasArmedWithType" sheetId="28" r:id="rId28"/>
     <sheet name="DispositionOfArresteeUnder18Typ" sheetId="29" r:id="rId29"/>
     <sheet name="AgencyType" sheetId="30" r:id="rId30"/>
+    <sheet name="CargoTheftIndicatorType" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="664">
   <si>
     <t>Table</t>
   </si>
@@ -1604,9 +1605,6 @@
     <t>Human Trafficking Offenses</t>
   </si>
   <si>
-    <t>Group B Offenses</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -2013,6 +2011,36 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CargoTheftIndicatorType</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Property)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Society)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Not a Crime)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Other)</t>
+  </si>
+  <si>
+    <t>Group B Offenses (Person)</t>
+  </si>
+  <si>
+    <t>Prostitution Offenses (Society)</t>
   </si>
 </sst>
 </file>
@@ -2436,19 +2464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2464,7 +2492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2488,7 +2516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2496,7 +2524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2504,7 +2532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2536,7 +2564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2552,7 +2580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2560,7 +2588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2568,7 +2596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2576,7 +2604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>491</v>
       </c>
@@ -2584,7 +2612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2592,7 +2620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2600,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2632,7 +2660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2640,7 +2668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2664,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2672,7 +2700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2680,12 +2708,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B30" t="s">
-        <v>639</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -2710,13 +2746,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2727,10 +2763,10 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -2741,10 +2777,10 @@
         <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -2755,10 +2791,10 @@
         <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -2769,10 +2805,10 @@
         <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -2783,10 +2819,10 @@
         <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -2797,10 +2833,10 @@
         <v>280</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -2811,10 +2847,10 @@
         <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -2825,10 +2861,10 @@
         <v>282</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -2839,10 +2875,10 @@
         <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -2853,10 +2889,10 @@
         <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -2867,10 +2903,10 @@
         <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -2881,10 +2917,10 @@
         <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26</v>
       </c>
@@ -2895,10 +2931,10 @@
         <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>27</v>
       </c>
@@ -2909,10 +2945,10 @@
         <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -2923,10 +2959,10 @@
         <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>33</v>
       </c>
@@ -2937,10 +2973,10 @@
         <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41</v>
       </c>
@@ -2951,10 +2987,10 @@
         <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42</v>
       </c>
@@ -2965,10 +3001,10 @@
         <v>292</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -2979,10 +3015,10 @@
         <v>293</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44</v>
       </c>
@@ -2993,10 +3029,10 @@
         <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45</v>
       </c>
@@ -3007,10 +3043,10 @@
         <v>295</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>51</v>
       </c>
@@ -3021,10 +3057,10 @@
         <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>52</v>
       </c>
@@ -3035,10 +3071,10 @@
         <v>297</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>61</v>
       </c>
@@ -3049,10 +3085,10 @@
         <v>298</v>
       </c>
       <c r="D24" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -3063,10 +3099,10 @@
         <v>299</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>71</v>
       </c>
@@ -3077,10 +3113,10 @@
         <v>300</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>72</v>
       </c>
@@ -3091,10 +3127,10 @@
         <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>88</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>99999</v>
       </c>
@@ -3122,18 +3158,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99998</v>
       </c>
       <c r="B30" t="s">
+        <v>651</v>
+      </c>
+      <c r="C30" t="s">
         <v>652</v>
       </c>
-      <c r="C30" t="s">
-        <v>653</v>
-      </c>
       <c r="D30" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3155,13 +3191,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -3172,7 +3208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3183,7 +3219,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3191,10 +3227,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3205,7 +3241,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3216,7 +3252,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3224,10 +3260,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3235,10 +3271,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3246,29 +3282,29 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99999</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
-      </c>
-      <c r="C10" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3290,14 +3326,14 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -3308,7 +3344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3319,7 +3355,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3330,7 +3366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3341,7 +3377,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3352,7 +3388,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3360,10 +3396,10 @@
         <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3371,10 +3407,10 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3382,10 +3418,10 @@
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3393,10 +3429,10 @@
         <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3404,10 +3440,10 @@
         <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3418,7 +3454,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3426,10 +3462,10 @@
         <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3437,10 +3473,10 @@
         <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3448,10 +3484,10 @@
         <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3459,10 +3495,10 @@
         <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3470,10 +3506,10 @@
         <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3481,10 +3517,10 @@
         <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3492,10 +3528,10 @@
         <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3503,10 +3539,10 @@
         <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3514,10 +3550,10 @@
         <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3525,10 +3561,10 @@
         <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3536,10 +3572,10 @@
         <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3547,10 +3583,10 @@
         <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3558,10 +3594,10 @@
         <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3569,10 +3605,10 @@
         <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3580,10 +3616,10 @@
         <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3591,10 +3627,10 @@
         <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3602,10 +3638,10 @@
         <v>310</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3613,10 +3649,10 @@
         <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3624,10 +3660,10 @@
         <v>312</v>
       </c>
       <c r="C30" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3635,10 +3671,10 @@
         <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3646,10 +3682,10 @@
         <v>314</v>
       </c>
       <c r="C32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3657,10 +3693,10 @@
         <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3668,10 +3704,10 @@
         <v>316</v>
       </c>
       <c r="C34" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3679,10 +3715,10 @@
         <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3690,10 +3726,10 @@
         <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3701,10 +3737,10 @@
         <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3712,10 +3748,10 @@
         <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3723,10 +3759,10 @@
         <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3734,10 +3770,10 @@
         <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3745,10 +3781,10 @@
         <v>211</v>
       </c>
       <c r="C41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3756,10 +3792,10 @@
         <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3767,10 +3803,10 @@
         <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3778,10 +3814,10 @@
         <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3792,7 +3828,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3800,10 +3836,10 @@
         <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3814,7 +3850,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3822,10 +3858,10 @@
         <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3836,7 +3872,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59</v>
       </c>
@@ -3844,10 +3880,10 @@
         <v>323</v>
       </c>
       <c r="C50" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -3858,7 +3894,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -3866,10 +3902,10 @@
         <v>326</v>
       </c>
       <c r="C52" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>66</v>
       </c>
@@ -3877,10 +3913,10 @@
         <v>327</v>
       </c>
       <c r="C53" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67</v>
       </c>
@@ -3888,10 +3924,10 @@
         <v>328</v>
       </c>
       <c r="C54" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>68</v>
       </c>
@@ -3899,10 +3935,10 @@
         <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>69</v>
       </c>
@@ -3910,10 +3946,10 @@
         <v>330</v>
       </c>
       <c r="C56" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70</v>
       </c>
@@ -3921,10 +3957,10 @@
         <v>331</v>
       </c>
       <c r="C57" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>71</v>
       </c>
@@ -3932,10 +3968,10 @@
         <v>332</v>
       </c>
       <c r="C58" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>72</v>
       </c>
@@ -3943,10 +3979,10 @@
         <v>333</v>
       </c>
       <c r="C59" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>73</v>
       </c>
@@ -3957,7 +3993,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>74</v>
       </c>
@@ -3965,10 +4001,10 @@
         <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -3976,10 +4012,10 @@
         <v>337</v>
       </c>
       <c r="C62" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>76</v>
       </c>
@@ -3987,10 +4023,10 @@
         <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>77</v>
       </c>
@@ -4001,7 +4037,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1">
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>78</v>
       </c>
@@ -4012,7 +4048,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>79</v>
       </c>
@@ -4020,10 +4056,10 @@
         <v>342</v>
       </c>
       <c r="C66" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>80</v>
       </c>
@@ -4031,10 +4067,10 @@
         <v>343</v>
       </c>
       <c r="C67" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>88</v>
       </c>
@@ -4042,10 +4078,10 @@
         <v>344</v>
       </c>
       <c r="C68" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>99999</v>
       </c>
@@ -4056,15 +4092,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>99998</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C70" t="s">
         <v>652</v>
-      </c>
-      <c r="C70" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4086,13 +4122,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4111,10 +4147,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4122,10 +4158,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4133,10 +4169,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4144,10 +4180,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4155,10 +4191,10 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4166,10 +4202,10 @@
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4177,10 +4213,10 @@
         <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4188,10 +4224,10 @@
         <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4202,7 +4238,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4213,7 +4249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4221,10 +4257,10 @@
         <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4232,10 +4268,10 @@
         <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4243,10 +4279,10 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4254,10 +4290,10 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4265,10 +4301,10 @@
         <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4276,10 +4312,10 @@
         <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>99999</v>
       </c>
@@ -4290,7 +4326,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>93</v>
       </c>
@@ -4298,18 +4334,18 @@
         <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
         <v>652</v>
-      </c>
-      <c r="C20" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4331,12 +4367,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4347,7 +4383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4358,7 +4394,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4380,7 +4416,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4391,7 +4427,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4402,7 +4438,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4413,7 +4449,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4424,7 +4460,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4435,7 +4471,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4446,7 +4482,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4457,7 +4493,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4468,7 +4504,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99999</v>
       </c>
@@ -4479,15 +4515,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4509,12 +4545,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4525,7 +4561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4536,7 +4572,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4547,7 +4583,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4558,7 +4594,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4569,7 +4605,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4577,10 +4613,10 @@
         <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4591,7 +4627,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4602,7 +4638,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4613,7 +4649,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99999</v>
       </c>
@@ -4624,15 +4660,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99998</v>
       </c>
       <c r="B11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" t="s">
         <v>652</v>
-      </c>
-      <c r="C11" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4654,12 +4690,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4670,7 +4706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4678,10 +4714,10 @@
         <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4692,7 +4728,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4714,7 +4750,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4725,7 +4761,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4736,7 +4772,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4747,7 +4783,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4758,7 +4794,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4769,7 +4805,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4780,7 +4816,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4791,7 +4827,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99999</v>
       </c>
@@ -4802,15 +4838,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4832,12 +4868,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -4848,7 +4884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4859,7 +4895,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4870,7 +4906,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4881,7 +4917,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4892,7 +4928,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4903,7 +4939,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4925,26 +4961,26 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99999</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
-      </c>
-      <c r="C10" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -4966,9 +5002,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4979,7 +5015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4987,10 +5023,10 @@
         <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4998,10 +5034,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
@@ -5012,15 +5048,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5042,12 +5078,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5058,7 +5094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5069,7 +5105,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5080,7 +5116,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5091,7 +5127,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5102,7 +5138,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5113,7 +5149,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99999</v>
       </c>
@@ -5124,15 +5160,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" t="s">
         <v>652</v>
-      </c>
-      <c r="C8" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5157,12 +5193,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5173,7 +5209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5184,7 +5220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5195,7 +5231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5206,7 +5242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5217,7 +5253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5228,26 +5264,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99999</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99998</v>
       </c>
       <c r="B8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C8" t="s">
         <v>652</v>
-      </c>
-      <c r="C8" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5269,9 +5305,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5282,7 +5318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5293,7 +5329,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5304,7 +5340,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
@@ -5315,15 +5351,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5345,9 +5381,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5358,7 +5394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5369,7 +5405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5380,7 +5416,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
@@ -5391,15 +5427,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5421,12 +5457,12 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5437,7 +5473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5448,7 +5484,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5459,7 +5495,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5470,7 +5506,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5481,7 +5517,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5492,7 +5528,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5511,10 +5547,10 @@
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5525,7 +5561,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5536,7 +5572,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5547,7 +5583,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -5558,7 +5594,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -5569,7 +5605,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -5580,7 +5616,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -5591,7 +5627,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -5602,7 +5638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -5613,7 +5649,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21</v>
       </c>
@@ -5624,7 +5660,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>99999</v>
       </c>
@@ -5635,15 +5671,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>99998</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
         <v>652</v>
-      </c>
-      <c r="C20" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -5665,12 +5701,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5681,7 +5717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5692,7 +5728,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5714,7 +5750,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5725,7 +5761,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5736,7 +5772,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5747,7 +5783,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5758,23 +5794,23 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99998</v>
       </c>
       <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
         <v>652</v>
       </c>
-      <c r="C9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99999</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C10" t="s">
         <v>274</v>
@@ -5799,12 +5835,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5815,7 +5851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5823,10 +5859,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -5834,10 +5870,10 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -5845,10 +5881,10 @@
         <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5856,10 +5892,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5870,7 +5906,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5878,10 +5914,10 @@
         <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5889,10 +5925,10 @@
         <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5900,26 +5936,26 @@
         <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
       </c>
-      <c r="C10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99999</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
         <v>274</v>
@@ -5944,12 +5980,12 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -5960,7 +5996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5971,7 +6007,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5982,7 +6018,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5993,7 +6029,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6001,10 +6037,10 @@
         <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6015,7 +6051,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6026,7 +6062,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6037,7 +6073,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6048,7 +6084,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6059,7 +6095,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6070,7 +6106,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6078,10 +6114,10 @@
         <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6092,7 +6128,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6103,7 +6139,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6114,7 +6150,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6125,7 +6161,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6136,7 +6172,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6147,7 +6183,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6158,7 +6194,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6169,7 +6205,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6180,7 +6216,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6191,7 +6227,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6202,7 +6238,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6213,7 +6249,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6224,7 +6260,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6235,7 +6271,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>99999</v>
       </c>
@@ -6246,15 +6282,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>99998</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -6275,16 +6311,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6295,7 +6331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6306,7 +6342,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6317,7 +6353,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6328,23 +6364,23 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>99998</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
       </c>
-      <c r="C5" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99999</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
         <v>274</v>
@@ -6369,12 +6405,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6385,7 +6421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6396,7 +6432,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6407,7 +6443,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -6418,15 +6454,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -6448,12 +6484,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="60.1640625" customWidth="1"/>
+    <col min="3" max="3" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6464,7 +6500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6475,7 +6511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -6486,7 +6522,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>120</v>
       </c>
@@ -6497,7 +6533,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>130</v>
       </c>
@@ -6508,7 +6544,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
@@ -6519,7 +6555,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -6530,7 +6566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
@@ -6538,10 +6574,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -6552,18 +6588,18 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99998</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
         <v>652</v>
       </c>
-      <c r="C10" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99999</v>
       </c>
@@ -6593,12 +6629,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6609,7 +6645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6620,7 +6656,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6631,18 +6667,18 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99998</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
         <v>652</v>
       </c>
-      <c r="C4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99999</v>
       </c>
@@ -6669,15 +6705,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6688,7 +6724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6699,7 +6735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6707,10 +6743,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6718,10 +6754,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6729,10 +6765,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6740,10 +6776,10 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6754,26 +6790,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99999</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99998</v>
       </c>
       <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
         <v>652</v>
-      </c>
-      <c r="C9" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -6792,16 +6828,16 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6812,122 +6848,122 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>99998</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99999</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C12" t="s">
         <v>274</v>
@@ -6943,25 +6979,98 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="59.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6981,10 +7090,10 @@
         <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>91</v>
       </c>
@@ -6992,7 +7101,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D2" t="s">
         <v>494</v>
@@ -7001,13 +7110,13 @@
         <v>496</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92</v>
       </c>
@@ -7015,7 +7124,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>494</v>
@@ -7024,13 +7133,13 @@
         <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>93</v>
       </c>
@@ -7038,7 +7147,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>494</v>
@@ -7047,13 +7156,13 @@
         <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -7073,10 +7182,10 @@
         <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>120</v>
       </c>
@@ -7096,10 +7205,10 @@
         <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>131</v>
       </c>
@@ -7119,10 +7228,10 @@
         <v>509</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>132</v>
       </c>
@@ -7142,10 +7251,10 @@
         <v>509</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>133</v>
       </c>
@@ -7165,10 +7274,10 @@
         <v>509</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200</v>
       </c>
@@ -7188,10 +7297,10 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>210</v>
       </c>
@@ -7211,10 +7320,10 @@
         <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>220</v>
       </c>
@@ -7234,10 +7343,10 @@
         <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>231</v>
       </c>
@@ -7257,10 +7366,10 @@
         <v>510</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>232</v>
       </c>
@@ -7280,10 +7389,10 @@
         <v>510</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>233</v>
       </c>
@@ -7303,10 +7412,10 @@
         <v>510</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>234</v>
       </c>
@@ -7326,10 +7435,10 @@
         <v>510</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>235</v>
       </c>
@@ -7349,10 +7458,10 @@
         <v>510</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>236</v>
       </c>
@@ -7372,10 +7481,10 @@
         <v>510</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>237</v>
       </c>
@@ -7395,10 +7504,10 @@
         <v>510</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>238</v>
       </c>
@@ -7418,10 +7527,10 @@
         <v>510</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>240</v>
       </c>
@@ -7441,10 +7550,10 @@
         <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
@@ -7464,10 +7573,10 @@
         <v>83</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>261</v>
       </c>
@@ -7487,10 +7596,10 @@
         <v>511</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>262</v>
       </c>
@@ -7510,10 +7619,10 @@
         <v>511</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>263</v>
       </c>
@@ -7533,10 +7642,10 @@
         <v>511</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>264</v>
       </c>
@@ -7556,10 +7665,10 @@
         <v>511</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>265</v>
       </c>
@@ -7579,10 +7688,10 @@
         <v>511</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>270</v>
       </c>
@@ -7602,10 +7711,10 @@
         <v>94</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>290</v>
       </c>
@@ -7625,10 +7734,10 @@
         <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>351</v>
       </c>
@@ -7648,10 +7757,10 @@
         <v>512</v>
       </c>
       <c r="G30" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>352</v>
       </c>
@@ -7671,10 +7780,10 @@
         <v>512</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>370</v>
       </c>
@@ -7694,10 +7803,10 @@
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>391</v>
       </c>
@@ -7717,10 +7826,10 @@
         <v>513</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>392</v>
       </c>
@@ -7740,10 +7849,10 @@
         <v>513</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>393</v>
       </c>
@@ -7763,10 +7872,10 @@
         <v>513</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>394</v>
       </c>
@@ -7786,10 +7895,10 @@
         <v>513</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>401</v>
       </c>
@@ -7809,10 +7918,10 @@
         <v>514</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>402</v>
       </c>
@@ -7832,10 +7941,10 @@
         <v>514</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>510</v>
       </c>
@@ -7855,10 +7964,10 @@
         <v>113</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>111</v>
       </c>
@@ -7878,10 +7987,10 @@
         <v>515</v>
       </c>
       <c r="G40" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>112</v>
       </c>
@@ -7901,10 +8010,10 @@
         <v>515</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>113</v>
       </c>
@@ -7924,10 +8033,10 @@
         <v>515</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>114</v>
       </c>
@@ -7947,10 +8056,10 @@
         <v>515</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>280</v>
       </c>
@@ -7970,10 +8079,10 @@
         <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>361</v>
       </c>
@@ -7993,10 +8102,10 @@
         <v>516</v>
       </c>
       <c r="G45" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>362</v>
       </c>
@@ -8016,10 +8125,10 @@
         <v>516</v>
       </c>
       <c r="G46" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>520</v>
       </c>
@@ -8039,10 +8148,10 @@
         <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>901</v>
       </c>
@@ -8059,13 +8168,13 @@
         <v>273</v>
       </c>
       <c r="F48" t="s">
-        <v>518</v>
+        <v>658</v>
       </c>
       <c r="G48" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>902</v>
       </c>
@@ -8082,13 +8191,13 @@
         <v>273</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G49" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>903</v>
       </c>
@@ -8105,13 +8214,13 @@
         <v>273</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>904</v>
       </c>
@@ -8128,13 +8237,13 @@
         <v>273</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>905</v>
       </c>
@@ -8151,13 +8260,13 @@
         <v>273</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>906</v>
       </c>
@@ -8174,13 +8283,13 @@
         <v>273</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>907</v>
       </c>
@@ -8197,13 +8306,13 @@
         <v>273</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>908</v>
       </c>
@@ -8220,13 +8329,13 @@
         <v>273</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>909</v>
       </c>
@@ -8243,13 +8352,13 @@
         <v>273</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="G56" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>910</v>
       </c>
@@ -8266,13 +8375,13 @@
         <v>273</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G57" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>990</v>
       </c>
@@ -8289,13 +8398,13 @@
         <v>273</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="G58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>701</v>
       </c>
@@ -8312,13 +8421,13 @@
         <v>273</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>518</v>
+        <v>659</v>
       </c>
       <c r="G59" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>702</v>
       </c>
@@ -8335,13 +8444,13 @@
         <v>273</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>518</v>
+        <v>662</v>
       </c>
       <c r="G60" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>403</v>
       </c>
@@ -8358,13 +8467,13 @@
         <v>273</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>514</v>
+        <v>663</v>
       </c>
       <c r="G61" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>641</v>
       </c>
@@ -8375,7 +8484,7 @@
         <v>485</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>273</v>
@@ -8384,10 +8493,10 @@
         <v>517</v>
       </c>
       <c r="G62" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>642</v>
       </c>
@@ -8398,7 +8507,7 @@
         <v>487</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>273</v>
@@ -8407,15 +8516,15 @@
         <v>517</v>
       </c>
       <c r="G63" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>99999</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C64" t="s">
         <v>274</v>
@@ -8433,27 +8542,27 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>99998</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C65" t="s">
         <v>652</v>
       </c>
-      <c r="C65" t="s">
-        <v>653</v>
-      </c>
       <c r="D65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -8475,15 +8584,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8494,7 +8603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8505,7 +8614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8516,7 +8625,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8527,7 +8636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8538,26 +8647,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99999</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99998</v>
       </c>
       <c r="B7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C7" t="s">
         <v>652</v>
-      </c>
-      <c r="C7" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8579,13 +8688,13 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="8.875" style="3"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8596,7 +8705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8607,7 +8716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8618,7 +8727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8629,7 +8738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8640,7 +8749,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8651,7 +8760,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8662,7 +8771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8673,7 +8782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8684,7 +8793,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8695,7 +8804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8706,7 +8815,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8717,7 +8826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8728,7 +8837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8739,7 +8848,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8750,7 +8859,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8761,7 +8870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8772,7 +8881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8783,7 +8892,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8791,10 +8900,10 @@
         <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8805,7 +8914,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8816,7 +8925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8827,7 +8936,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8838,7 +8947,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8849,7 +8958,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8860,7 +8969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8871,7 +8980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>37</v>
       </c>
@@ -8882,7 +8991,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>38</v>
       </c>
@@ -8893,7 +9002,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39</v>
       </c>
@@ -8904,7 +9013,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -8915,7 +9024,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41</v>
       </c>
@@ -8926,7 +9035,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42</v>
       </c>
@@ -8937,7 +9046,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -8948,7 +9057,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45</v>
       </c>
@@ -8959,7 +9068,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>46</v>
       </c>
@@ -8970,7 +9079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>47</v>
       </c>
@@ -8981,7 +9090,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>48</v>
       </c>
@@ -8992,7 +9101,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>49</v>
       </c>
@@ -9003,7 +9112,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
@@ -9014,7 +9123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>51</v>
       </c>
@@ -9025,7 +9134,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>52</v>
       </c>
@@ -9036,7 +9145,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53</v>
       </c>
@@ -9047,7 +9156,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>54</v>
       </c>
@@ -9058,7 +9167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>55</v>
       </c>
@@ -9069,7 +9178,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>56</v>
       </c>
@@ -9080,7 +9189,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>57</v>
       </c>
@@ -9091,7 +9200,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99999</v>
       </c>
@@ -9102,15 +9211,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>99998</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C48" t="s">
         <v>652</v>
-      </c>
-      <c r="C48" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9132,12 +9241,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -9148,7 +9257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9159,7 +9268,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9170,26 +9279,26 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99999</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99998</v>
       </c>
       <c r="B5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" t="s">
         <v>652</v>
-      </c>
-      <c r="C5" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9211,12 +9320,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -9227,7 +9336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9238,7 +9347,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9246,10 +9355,10 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9260,7 +9369,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9271,7 +9380,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9282,7 +9391,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -9293,7 +9402,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -9304,7 +9413,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -9315,7 +9424,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -9326,7 +9435,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -9334,10 +9443,10 @@
         <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9345,29 +9454,29 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99999</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99998</v>
       </c>
       <c r="B14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" t="s">
         <v>652</v>
-      </c>
-      <c r="C14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -9389,12 +9498,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -9405,7 +9514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>110</v>
       </c>
@@ -9416,7 +9525,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>120</v>
       </c>
@@ -9427,7 +9536,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>130</v>
       </c>
@@ -9438,7 +9547,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>140</v>
       </c>
@@ -9449,7 +9558,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -9460,7 +9569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -9471,7 +9580,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300</v>
       </c>
@@ -9482,7 +9591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>350</v>
       </c>
@@ -9493,7 +9602,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>400</v>
       </c>
@@ -9504,7 +9613,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -9515,7 +9624,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>600</v>
       </c>
@@ -9526,7 +9635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>650</v>
       </c>
@@ -9537,7 +9646,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>700</v>
       </c>
@@ -9548,7 +9657,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>850</v>
       </c>
@@ -9559,7 +9668,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>900</v>
       </c>
@@ -9570,7 +9679,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>99999</v>
       </c>
@@ -9581,15 +9690,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>99998</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C18" t="s">
         <v>652</v>
-      </c>
-      <c r="C18" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
